--- a/reportTests/reportTest1.xlsx
+++ b/reportTests/reportTest1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="15347" windowHeight="2833" tabRatio="940" firstSheet="23" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="15347" windowHeight="2833" tabRatio="940" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="מצבת כא דיילים" sheetId="19" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5153" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5161" uniqueCount="1070">
   <si>
     <t>תאריך</t>
   </si>
@@ -4773,6 +4773,24 @@
   </si>
   <si>
     <t>מוזיאון  תל אביב</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>rishonLezion</t>
+  </si>
+  <si>
+    <t>blabla</t>
+  </si>
+  <si>
+    <t>2017-01-25T12:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -5664,7 +5682,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -6209,6 +6227,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6217,168 +6237,6 @@
     <cellStyle name="Normal 2 3" xfId="3"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -6820,6 +6678,168 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -9235,281 +9255,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pivottable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M4:N43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="58">
-        <item x="18"/>
-        <item x="0"/>
-        <item x="32"/>
-        <item x="7"/>
-        <item x="24"/>
-        <item m="1" x="49"/>
-        <item m="1" x="44"/>
-        <item x="10"/>
-        <item x="35"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item m="1" x="50"/>
-        <item m="1" x="47"/>
-        <item m="1" x="53"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item m="1" x="40"/>
-        <item x="6"/>
-        <item m="1" x="42"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item m="1" x="52"/>
-        <item x="28"/>
-        <item x="21"/>
-        <item x="33"/>
-        <item m="1" x="51"/>
-        <item x="2"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="31"/>
-        <item m="1" x="41"/>
-        <item m="1" x="55"/>
-        <item x="8"/>
-        <item x="20"/>
-        <item x="5"/>
-        <item m="1" x="43"/>
-        <item x="36"/>
-        <item m="1" x="39"/>
-        <item x="29"/>
-        <item x="37"/>
-        <item m="1" x="38"/>
-        <item m="1" x="56"/>
-        <item x="23"/>
-        <item m="1" x="46"/>
-        <item x="15"/>
-        <item x="19"/>
-        <item m="1" x="54"/>
-        <item m="1" x="45"/>
-        <item x="17"/>
-        <item m="1" x="48"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="16"/>
-        <item x="25"/>
-        <item x="30"/>
-        <item x="34"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="39">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="סכום של מס בק שנמכרו- יועץ" fld="11" baseField="10" baseItem="0"/>
-  </dataFields>
-  <formats count="15">
-    <format dxfId="14">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="10" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="10" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pivottable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -9764,10 +9509,10 @@
     <dataField name="סכום של סה&quot;כ שעות (למשוך נוסחא)" fld="13" baseField="10" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="35">
-    <format dxfId="49">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="40">
@@ -9815,10 +9560,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="32">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="40">
@@ -9866,10 +9611,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="1">
@@ -9878,7 +9623,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="1">
@@ -9887,7 +9632,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="1">
@@ -9896,102 +9641,102 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="26">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="25">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="24">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="18">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="15">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="11">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="7">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="9">
@@ -10008,7 +9753,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="9">
@@ -10025,7 +9770,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10034,7 +9779,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10043,7 +9788,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="5">
@@ -10056,7 +9801,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="5">
@@ -10071,6 +9816,281 @@
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight12" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pivottable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M4:N43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="58">
+        <item x="18"/>
+        <item x="0"/>
+        <item x="32"/>
+        <item x="7"/>
+        <item x="24"/>
+        <item m="1" x="49"/>
+        <item m="1" x="44"/>
+        <item x="10"/>
+        <item x="35"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item m="1" x="50"/>
+        <item m="1" x="47"/>
+        <item m="1" x="53"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item m="1" x="40"/>
+        <item x="6"/>
+        <item m="1" x="42"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item m="1" x="52"/>
+        <item x="28"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item m="1" x="51"/>
+        <item x="2"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="31"/>
+        <item m="1" x="41"/>
+        <item m="1" x="55"/>
+        <item x="8"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item m="1" x="43"/>
+        <item x="36"/>
+        <item m="1" x="39"/>
+        <item x="29"/>
+        <item x="37"/>
+        <item m="1" x="38"/>
+        <item m="1" x="56"/>
+        <item x="23"/>
+        <item m="1" x="46"/>
+        <item x="15"/>
+        <item x="19"/>
+        <item m="1" x="54"/>
+        <item m="1" x="45"/>
+        <item x="17"/>
+        <item m="1" x="48"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="25"/>
+        <item x="30"/>
+        <item x="34"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="39">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="סכום של מס בק שנמכרו- יועץ" fld="11" baseField="10" baseItem="0"/>
+  </dataFields>
+  <formats count="15">
+    <format dxfId="49">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -36192,10 +36212,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -36219,8 +36239,8 @@
         <v>12</v>
       </c>
       <c r="D1" s="28">
-        <f>I22</f>
-        <v>30.166666666666668</v>
+        <f>I23</f>
+        <v>32.166666666666664</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -36372,7 +36392,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3" t="str">
-        <f t="shared" ref="N8:N20" si="0">IF(AND($I8&gt;2,$G8&gt;0.79),"120%",IF(AND($I8&gt;2,$G8&gt;=0,$F8&gt;0.7083),"130%","100%"))</f>
+        <f t="shared" ref="N8:N21" si="0">IF(AND($I8&gt;2,$G8&gt;0.79),"120%",IF(AND($I8&gt;2,$G8&gt;=0,$F8&gt;0.7083),"130%","100%"))</f>
         <v>100%</v>
       </c>
       <c r="O8" s="9">
@@ -36420,27 +36440,27 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" ref="H9:H20" si="1">IF((G9-F9)&lt;0,(1-F9+G9),(G9-F9))</f>
+        <f t="shared" ref="H9:H21" si="1">IF((G9-F9)&lt;0,(1-F9+G9),(G9-F9))</f>
         <v>0.20833333333333337</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I20" si="2">H9*24</f>
+        <f t="shared" ref="I9:I21" si="2">H9*24</f>
         <v>5.0000000000000009</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" ref="J9:J20" si="3">IF(I9&lt;9,I9,9)</f>
+        <f t="shared" ref="J9:J21" si="3">IF(I9&lt;9,I9,9)</f>
         <v>5.0000000000000009</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" ref="K9:K20" si="4">IF(I9&gt;9,I9-9,0)</f>
+        <f t="shared" ref="K9:K21" si="4">IF(I9&gt;9,I9-9,0)</f>
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" ref="L9:L20" si="5">IF(K9&gt;2,2,K9)</f>
+        <f t="shared" ref="L9:L21" si="5">IF(K9&gt;2,2,K9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" ref="M9:M20" si="6">IF(K9&gt;2,K9-2,0)</f>
+        <f t="shared" ref="M9:M21" si="6">IF(K9&gt;2,K9-2,0)</f>
         <v>0</v>
       </c>
       <c r="N9" s="3" t="str">
@@ -36531,107 +36551,111 @@
         <v>867</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A11" s="123">
-        <v>42762</v>
-      </c>
-      <c r="B11" s="124" t="s">
-        <v>945</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>973</v>
-      </c>
-      <c r="D11" s="124" t="s">
-        <v>974</v>
-      </c>
-      <c r="E11" s="124" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="125">
-        <v>0.4375</v>
-      </c>
-      <c r="G11" s="125">
-        <v>0.64583333333333337</v>
+    <row r="11" spans="1:25" s="116" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="269" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F11" s="268" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G11" s="268" t="s">
+        <v>1065</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20833333333333337</v>
+        <f>IF((G11-F11)&lt;0,(1-F11+G11),(G11-F11))</f>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000009</v>
+        <f>H11*24</f>
+        <v>1.9999999999999982</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000009</v>
+        <f>IF(I11&lt;9,I11,9)</f>
+        <v>1.9999999999999982</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(I11&gt;9,I11-9,0)</f>
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(K11&gt;2,2,K11)</f>
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(K11&gt;2,K11-2,0)</f>
         <v>0</v>
       </c>
       <c r="N11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND($I11&gt;2,$G11&gt;0.79),"120%",IF(AND($I11&gt;2,$G11&gt;=0,$F11&gt;0.7083),"130%","100%"))</f>
         <v>100%</v>
       </c>
-      <c r="O11" s="111"/>
+      <c r="O11" s="111" t="s">
+        <v>1064</v>
+      </c>
       <c r="P11" s="111"/>
       <c r="Q11" s="111"/>
       <c r="R11" s="111"/>
       <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
+      <c r="T11" s="29"/>
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
-      <c r="W11" s="15"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A12" s="123">
-        <v>42765</v>
+        <v>42762</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>903</v>
+        <v>945</v>
       </c>
       <c r="C12" s="124" t="s">
-        <v>959</v>
+        <v>973</v>
       </c>
       <c r="D12" s="124" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="E12" s="124" t="s">
-        <v>865</v>
+        <v>75</v>
       </c>
       <c r="F12" s="125">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="G12" s="125">
-        <v>0.83333333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="6"/>
@@ -36639,12 +36663,10 @@
       </c>
       <c r="N12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>120%</v>
+        <v>100%</v>
       </c>
       <c r="O12" s="111"/>
-      <c r="P12" s="111">
-        <v>66</v>
-      </c>
+      <c r="P12" s="111"/>
       <c r="Q12" s="111"/>
       <c r="R12" s="111"/>
       <c r="S12" s="111"/>
@@ -36654,32 +36676,46 @@
       <c r="W12" s="15"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A13" s="123"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
+      <c r="A13" s="123">
+        <v>42765</v>
+      </c>
+      <c r="B13" s="124" t="s">
+        <v>903</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>959</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>958</v>
+      </c>
+      <c r="E13" s="124" t="s">
+        <v>865</v>
+      </c>
+      <c r="F13" s="125">
+        <v>0.375</v>
+      </c>
+      <c r="G13" s="125">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="H13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="6"/>
@@ -36687,10 +36723,12 @@
       </c>
       <c r="N13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>100%</v>
+        <v>120%</v>
       </c>
       <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
+      <c r="P13" s="111">
+        <v>66</v>
+      </c>
       <c r="Q13" s="111"/>
       <c r="R13" s="111"/>
       <c r="S13" s="111"/>
@@ -36792,13 +36830,13 @@
       <c r="W15" s="15"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A16" s="35"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -36838,13 +36876,13 @@
       <c r="W16" s="15"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -36975,7 +37013,7 @@
       <c r="V19" s="29"/>
       <c r="W19" s="15"/>
     </row>
-    <row r="20" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A20" s="14"/>
       <c r="B20" s="27"/>
       <c r="C20" s="1"/>
@@ -37017,8 +37055,8 @@
       <c r="R20" s="111"/>
       <c r="S20" s="111"/>
       <c r="T20" s="111"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
       <c r="W20" s="15"/>
     </row>
     <row r="21" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -37029,38 +37067,43 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="37"/>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>100%</v>
+      </c>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="15"/>
     </row>
     <row r="22" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14"/>
@@ -37068,109 +37111,116 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <f>SUM(I8:I21)</f>
-        <v>30.166666666666668</v>
-      </c>
-      <c r="J22" s="3">
-        <f>SUM(J8:J21)</f>
-        <v>28.166666666666668</v>
-      </c>
-      <c r="K22" s="3">
-        <f>SUM(K8:K21)</f>
+      <c r="P22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="37"/>
+    </row>
+    <row r="23" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="14"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <f>SUM(I8:I22)</f>
+        <v>32.166666666666664</v>
+      </c>
+      <c r="J23" s="3">
+        <f>SUM(J8:J22)</f>
+        <v>30.166666666666664</v>
+      </c>
+      <c r="K23" s="3">
+        <f>SUM(K8:K22)</f>
         <v>2</v>
       </c>
-      <c r="L22" s="3">
-        <f>SUM(L8:L21)</f>
+      <c r="L23" s="3">
+        <f>SUM(L8:L22)</f>
         <v>2</v>
       </c>
-      <c r="M22" s="3">
-        <f>SUM(M8:M21)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="40">
-        <f>SUM(O8:O21)</f>
+      <c r="M23" s="3">
+        <f>SUM(M8:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="40">
+        <f>SUM(O8:O22)</f>
         <v>35.4</v>
       </c>
-      <c r="P22" s="40">
-        <f>SUM(P8:P21)</f>
+      <c r="P23" s="40">
+        <f>SUM(P8:P22)</f>
         <v>86</v>
       </c>
-      <c r="Q22" s="40">
-        <f>SUM(Q8:Q21)</f>
+      <c r="Q23" s="40">
+        <f>SUM(Q8:Q22)</f>
         <v>7</v>
       </c>
-      <c r="R22" s="40">
-        <f t="shared" ref="R22:V22" si="7">SUM(R8:R21)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="40">
+      <c r="R23" s="40">
+        <f t="shared" ref="R23:V23" si="7">SUM(R8:R22)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T22" s="40">
+      <c r="T23" s="40">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="U22" s="40">
+      <c r="U23" s="40">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="V22" s="40">
+      <c r="V23" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W22" s="37"/>
-    </row>
-    <row r="23" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="W23" s="37"/>
     </row>
     <row r="24" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="30">
-        <f ca="1">SUMIF($E$9:$I$21,G25,$I$9:$I$21)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="31">
-        <f ca="1">+I21-H25-H26</f>
-        <v>-15</v>
-      </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="116"/>
-      <c r="T25" s="116"/>
-      <c r="U25" s="116"/>
-      <c r="V25" s="116"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A26" s="116"/>
@@ -37180,18 +37230,23 @@
       <c r="E26" s="116"/>
       <c r="F26" s="116"/>
       <c r="G26" s="29" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="H26" s="30">
-        <f ca="1">SUMIF($E$9:$I$21,G26,$I$9:$I$21)</f>
-        <v>15</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
+        <f ca="1">SUMIF($E$9:$I$22,G26,$I$9:$I$22)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="31">
+        <f ca="1">+I22-H26-H27</f>
+        <v>-15</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="112" t="s">
+        <v>200</v>
+      </c>
       <c r="O26" s="116"/>
       <c r="P26" s="116"/>
       <c r="Q26" s="116"/>
@@ -37209,23 +37264,18 @@
       <c r="E27" s="116"/>
       <c r="F27" s="116"/>
       <c r="G27" s="29" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="H27" s="30">
-        <f ca="1">SUMIF($E$8:$I$21,G27,$I$8:$I$21)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="31">
-        <f ca="1">+I22-H27-H28</f>
-        <v>11</v>
-      </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="112" t="s">
-        <v>200</v>
-      </c>
+        <f ca="1">SUMIF($E$9:$I$22,G27,$I$9:$I$22)</f>
+        <v>15</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
       <c r="O27" s="116"/>
       <c r="P27" s="116"/>
       <c r="Q27" s="116"/>
@@ -37243,18 +37293,23 @@
       <c r="E28" s="116"/>
       <c r="F28" s="116"/>
       <c r="G28" s="29" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="H28" s="30">
-        <f ca="1">SUMIF($E$8:$I$21,G28,$I$8:$I$20)</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
+        <f ca="1">SUMIF($E$8:$I$22,G28,$I$8:$I$22)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="31">
+        <f ca="1">+I23-H28-H29</f>
+        <v>12.999999999999996</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="112" t="s">
+        <v>200</v>
+      </c>
       <c r="O28" s="116"/>
       <c r="P28" s="116"/>
       <c r="Q28" s="116"/>
@@ -37263,6 +37318,35 @@
       <c r="T28" s="116"/>
       <c r="U28" s="116"/>
       <c r="V28" s="116"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="30">
+        <f ca="1">SUMIF($E$8:$I$22,G29,$I$8:$I$21)</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="116"/>
+      <c r="Q29" s="116"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="116"/>
+      <c r="U29" s="116"/>
+      <c r="V29" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -71436,8 +71520,8 @@
   </sheetPr>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V23" sqref="P23:V23"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
@@ -71715,58 +71799,56 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A10" s="123">
-        <v>42766</v>
+        <v>42760</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>954</v>
+        <v>1058</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>959</v>
+        <v>1059</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>958</v>
+        <v>69</v>
       </c>
       <c r="E10" s="124" t="s">
-        <v>865</v>
+        <v>1060</v>
       </c>
       <c r="F10" s="125">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="125">
-        <v>0.85416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.45833333333333331</v>
+        <f>IF((G10-F10)&lt;0,(1-F10+G10),(G10-F10))</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>H10*24</f>
+        <v>2.0000000000000009</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f>IF(I10&lt;9,I10,9)</f>
+        <v>2.0000000000000009</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>IF(I10&gt;9,I10-9,0)</f>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>IF(K10&gt;2,2,K10)</f>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(K10&gt;2,K10-2,0)</f>
         <v>0</v>
       </c>
       <c r="N10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>120%</v>
+        <f>IF(AND($I10&gt;2,$G10&gt;0.79),"120%",IF(AND($I10&gt;2,$G10&gt;=0,$F10&gt;0.7083),"130%","100%"))</f>
+        <v>100%</v>
       </c>
       <c r="O10" s="111"/>
-      <c r="P10" s="111">
-        <v>66</v>
-      </c>
+      <c r="P10" s="111"/>
       <c r="Q10" s="111"/>
       <c r="R10" s="111"/>
       <c r="S10" s="111"/>
@@ -71774,62 +71856,61 @@
       <c r="U10" s="29"/>
       <c r="V10" s="29"/>
       <c r="W10" s="15"/>
-      <c r="Y10" s="180" t="s">
-        <v>867</v>
-      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A11" s="123">
-        <v>42760</v>
+        <v>42766</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>1058</v>
+        <v>954</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>1059</v>
+        <v>959</v>
       </c>
       <c r="D11" s="124" t="s">
-        <v>69</v>
+        <v>958</v>
       </c>
       <c r="E11" s="124" t="s">
-        <v>1060</v>
+        <v>865</v>
       </c>
       <c r="F11" s="125">
-        <v>0.5</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="G11" s="125">
-        <v>0.58333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>8.333333333333337E-2</v>
+        <f>IF((G11-F11)&lt;0,(1-F11+G11),(G11-F11))</f>
+        <v>0.45833333333333331</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000009</v>
+        <f>H11*24</f>
+        <v>11</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000009</v>
+        <f>IF(I11&lt;9,I11,9)</f>
+        <v>9</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(I11&gt;9,I11-9,0)</f>
+        <v>2</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(K11&gt;2,2,K11)</f>
+        <v>2</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(K11&gt;2,K11-2,0)</f>
         <v>0</v>
       </c>
       <c r="N11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>100%</v>
+        <f>IF(AND($I11&gt;2,$G11&gt;0.79),"120%",IF(AND($I11&gt;2,$G11&gt;=0,$F11&gt;0.7083),"130%","100%"))</f>
+        <v>120%</v>
       </c>
       <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
+      <c r="P11" s="111">
+        <v>66</v>
+      </c>
       <c r="Q11" s="111"/>
       <c r="R11" s="111"/>
       <c r="S11" s="111"/>
@@ -71837,6 +71918,9 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="15"/>
+      <c r="Y11" s="180" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A12" s="123"/>
@@ -71847,31 +71931,19 @@
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H12:H13" si="7">IF((G12-F12)&lt;0,(1-F12+G12),(G12-F12))</f>
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="I12:I13" si="8">H12*24</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N12:N13" si="9">IF(AND($I12&gt;2,$G12&gt;0.79),"120%",IF(AND($I12&gt;2,$G12&gt;=0,$F12&gt;0.7083),"130%","100%"))</f>
         <v>100%</v>
       </c>
       <c r="O12" s="111"/>
@@ -71893,11 +71965,11 @@
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J13" s="3">
@@ -71917,7 +71989,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>100%</v>
       </c>
       <c r="O13" s="111"/>
@@ -72372,35 +72444,35 @@
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="40">
-        <f t="shared" ref="O23:V23" si="7">SUM(O8:O22)</f>
+        <f t="shared" ref="O23:V23" si="10">SUM(O8:O22)</f>
         <v>196</v>
       </c>
       <c r="P23" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="Q23" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="R23" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="S23" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T23" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="U23" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="V23" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="W23" s="37"/>
